--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2100942.91655021</v>
+        <v>2098646.052734722</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5648925.111355033</v>
+        <v>5648925.111355032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>186.0850531309659</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,13 +674,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>240.0192609915369</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.58083304169648</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>17.9207823275838</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,64 +899,64 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>72.47049842454879</v>
+        <v>208.0250417001232</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>192.7150582403054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>13.74574783723141</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>66.75433449706937</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,25 +1178,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.91642501047005</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.477975734669549</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>193.1717904191954</v>
       </c>
       <c r="T13" t="n">
-        <v>190.1085239279238</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U13" t="n">
         <v>286.2224884875777</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>205.8234429485686</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0299949913908</v>
+        <v>251.0299949913899</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2210634283829</v>
+        <v>92.39698882489299</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S16" t="n">
         <v>193.1717904191954</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2224884875777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>211.968787727816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>411.3570135595525</v>
       </c>
       <c r="H17" t="n">
-        <v>299.0656566556576</v>
+        <v>299.0656566556569</v>
       </c>
       <c r="I17" t="n">
         <v>58.35836677280804</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>174.761017821453</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>37.1676199065445</v>
       </c>
       <c r="H19" t="n">
-        <v>146.4910108745831</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>97.71153510303041</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U19" t="n">
         <v>286.2224884875777</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2132,7 +2132,7 @@
         <v>119.106884948407</v>
       </c>
       <c r="T20" t="n">
-        <v>205.8234429485686</v>
+        <v>205.8234429485682</v>
       </c>
       <c r="U20" t="n">
         <v>251.0299949913899</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.8970929837067</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>92.39698882489321</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T22" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2224884875777</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>48.67396595001752</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2210634283829</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.1717904191954</v>
       </c>
       <c r="T25" t="n">
         <v>220.3832213634118</v>
@@ -2533,16 +2533,16 @@
         <v>286.2224884875777</v>
       </c>
       <c r="V25" t="n">
-        <v>248.8136728791525</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457416988</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.3570135595525</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>41.87599327003792</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S28" t="n">
         <v>193.1717904191954</v>
@@ -2767,7 +2767,7 @@
         <v>220.3832213634118</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2224884875777</v>
+        <v>50.55496647264734</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>86.26379307083805</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2242758664309</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>193.1717904191954</v>
@@ -3004,19 +3004,19 @@
         <v>220.3832213634118</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>247.4213537238992</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.3570135595525</v>
+        <v>411.3570135595523</v>
       </c>
       <c r="H32" t="n">
         <v>299.0656566556569</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>155.0998663845612</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>142.5147073012517</v>
       </c>
       <c r="D34" t="n">
-        <v>123.8833592208361</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>121.7018488491929</v>
+        <v>121.701848849193</v>
       </c>
       <c r="F34" t="n">
-        <v>120.688934225555</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4889496310066</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>121.7588970772069</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.53988418135275</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>85.89291109542565</v>
       </c>
       <c r="T34" t="n">
-        <v>195.6511075660356</v>
+        <v>195.6511075660357</v>
       </c>
       <c r="U34" t="n">
         <v>261.4903746902015</v>
       </c>
       <c r="V34" t="n">
-        <v>227.4055295264518</v>
+        <v>227.4055295264519</v>
       </c>
       <c r="W34" t="n">
-        <v>261.7908845392148</v>
+        <v>261.7908845392149</v>
       </c>
       <c r="X34" t="n">
-        <v>200.9775415916609</v>
+        <v>200.977541591661</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>193.8525395547186</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>326.1238590627237</v>
       </c>
       <c r="F35" t="n">
-        <v>351.0695347321733</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G35" t="n">
         <v>355.5505025500144</v>
@@ -3284,7 +3284,7 @@
         <v>243.2591456461189</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55185576326997</v>
+        <v>2.551855763270019</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.30037393886896</v>
+        <v>63.30037393886901</v>
       </c>
       <c r="T35" t="n">
         <v>150.0169319390305</v>
       </c>
       <c r="U35" t="n">
-        <v>195.2234839818518</v>
+        <v>195.2234839818519</v>
       </c>
       <c r="V35" t="n">
         <v>271.9457474605969</v>
       </c>
       <c r="W35" t="n">
-        <v>293.4344577078749</v>
+        <v>293.434457707875</v>
       </c>
       <c r="X35" t="n">
-        <v>313.9245896689309</v>
+        <v>313.924589668931</v>
       </c>
       <c r="Y35" t="n">
         <v>330.4314276465155</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.0254691723992</v>
+        <v>124.0254691723993</v>
       </c>
       <c r="C37" t="n">
         <v>111.4403100890898</v>
       </c>
       <c r="D37" t="n">
-        <v>92.80896200867606</v>
+        <v>92.80896200867434</v>
       </c>
       <c r="E37" t="n">
-        <v>90.6274516370311</v>
+        <v>90.62745163703116</v>
       </c>
       <c r="F37" t="n">
-        <v>89.61453701339317</v>
+        <v>89.61453701339323</v>
       </c>
       <c r="G37" t="n">
-        <v>110.4145524188448</v>
+        <v>110.4145524188449</v>
       </c>
       <c r="H37" t="n">
-        <v>90.68449986504504</v>
+        <v>90.6844998650451</v>
       </c>
       <c r="I37" t="n">
-        <v>46.41776485689284</v>
+        <v>46.41776485689322</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90502409349234</v>
+        <v>41.9050240934924</v>
       </c>
       <c r="S37" t="n">
         <v>137.3652794096573</v>
@@ -3478,19 +3478,19 @@
         <v>164.5767103538738</v>
       </c>
       <c r="U37" t="n">
-        <v>230.4159774780396</v>
+        <v>230.4159774780397</v>
       </c>
       <c r="V37" t="n">
-        <v>196.3311323142899</v>
+        <v>196.33113231429</v>
       </c>
       <c r="W37" t="n">
-        <v>230.7164873270529</v>
+        <v>230.716487327053</v>
       </c>
       <c r="X37" t="n">
         <v>169.9031443794991</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.7781423425567</v>
+        <v>162.7781423425568</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C38" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D38" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E38" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F38" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G38" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H38" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I38" t="n">
-        <v>2.551855763269301</v>
+        <v>2.551855763270019</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y38" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="39">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C41" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D41" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E41" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F41" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G41" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H41" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I41" t="n">
-        <v>2.551855763270055</v>
+        <v>2.551855763269998</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.30037393886904</v>
+        <v>63.30037393886842</v>
       </c>
       <c r="T41" t="n">
-        <v>150.0169319390306</v>
+        <v>150.0169319390305</v>
       </c>
       <c r="U41" t="n">
-        <v>195.223483981851</v>
+        <v>195.2234839818518</v>
       </c>
       <c r="V41" t="n">
         <v>271.9457474605969</v>
@@ -3806,7 +3806,7 @@
         <v>313.924589668931</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D43" t="n">
-        <v>92.80896200867437</v>
+        <v>92.80896200867448</v>
       </c>
       <c r="E43" t="n">
-        <v>90.62745163703119</v>
+        <v>90.62745163703113</v>
       </c>
       <c r="F43" t="n">
-        <v>89.61453701339326</v>
+        <v>89.6145370133932</v>
       </c>
       <c r="G43" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188448</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68449986504513</v>
+        <v>90.68449986504507</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41776485689293</v>
+        <v>46.41776485689287</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.90502409349243</v>
+        <v>41.90502409349237</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T43" t="n">
         <v>164.5767103538738</v>
       </c>
       <c r="U43" t="n">
-        <v>230.4159774780397</v>
+        <v>230.4159774780396</v>
       </c>
       <c r="V43" t="n">
         <v>196.33113231429</v>
@@ -3961,10 +3961,10 @@
         <v>230.716487327053</v>
       </c>
       <c r="X43" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y43" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425567</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.9273306539426</v>
+        <v>326.9273306539425</v>
       </c>
       <c r="C44" t="n">
-        <v>309.4663807614696</v>
+        <v>309.4663807614695</v>
       </c>
       <c r="D44" t="n">
-        <v>298.876530611145</v>
+        <v>298.8765306111449</v>
       </c>
       <c r="E44" t="n">
-        <v>326.1238590627238</v>
+        <v>326.1238590627237</v>
       </c>
       <c r="F44" t="n">
-        <v>351.0695347321735</v>
+        <v>351.0695347321734</v>
       </c>
       <c r="G44" t="n">
-        <v>355.5505025500145</v>
+        <v>355.5505025500144</v>
       </c>
       <c r="H44" t="n">
-        <v>243.259145646119</v>
+        <v>243.2591456461189</v>
       </c>
       <c r="I44" t="n">
-        <v>2.551855763270055</v>
+        <v>2.551855763270005</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.30037393886904</v>
+        <v>63.30037393886899</v>
       </c>
       <c r="T44" t="n">
-        <v>150.0169319390306</v>
+        <v>150.0169319390305</v>
       </c>
       <c r="U44" t="n">
-        <v>195.2234839818519</v>
+        <v>195.2234839818518</v>
       </c>
       <c r="V44" t="n">
         <v>271.9457474605969</v>
@@ -4040,10 +4040,10 @@
         <v>293.434457707875</v>
       </c>
       <c r="X44" t="n">
-        <v>313.9245896689303</v>
+        <v>313.924589668931</v>
       </c>
       <c r="Y44" t="n">
-        <v>330.4314276465156</v>
+        <v>330.4314276465155</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>111.4403100890898</v>
       </c>
       <c r="D46" t="n">
-        <v>92.80896200867437</v>
+        <v>92.80896200867431</v>
       </c>
       <c r="E46" t="n">
-        <v>90.62745163703119</v>
+        <v>90.62745163703113</v>
       </c>
       <c r="F46" t="n">
-        <v>89.61453701339326</v>
+        <v>89.6145370133932</v>
       </c>
       <c r="G46" t="n">
-        <v>110.4145524188449</v>
+        <v>110.4145524188464</v>
       </c>
       <c r="H46" t="n">
-        <v>90.68449986504513</v>
+        <v>90.68449986504507</v>
       </c>
       <c r="I46" t="n">
-        <v>46.41776485689293</v>
+        <v>46.41776485689287</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.90502409349243</v>
+        <v>41.90502409349237</v>
       </c>
       <c r="S46" t="n">
-        <v>137.3652794096574</v>
+        <v>137.3652794096573</v>
       </c>
       <c r="T46" t="n">
         <v>164.5767103538738</v>
       </c>
       <c r="U46" t="n">
-        <v>230.4159774780397</v>
+        <v>230.4159774780396</v>
       </c>
       <c r="V46" t="n">
         <v>196.33113231429</v>
@@ -4198,10 +4198,10 @@
         <v>230.716487327053</v>
       </c>
       <c r="X46" t="n">
-        <v>169.9031443794992</v>
+        <v>169.9031443794991</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.7781423425568</v>
+        <v>162.7781423425567</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>540.6514970160482</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>297.2027203719481</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>290.2572196227447</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="W2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y2" t="n">
-        <v>728.6161971483371</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>313.4946457291688</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C3" t="n">
-        <v>139.0416164480418</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>945.9553551797435</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>772.5380106304124</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>772.5380106304124</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>544.3143923668015</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>544.3143923668015</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>300.8656157227014</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>300.8656157227014</v>
       </c>
       <c r="Y3" t="n">
-        <v>481.7099827492369</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="4">
@@ -4516,10 +4516,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>769.3954805204287</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W6" t="n">
-        <v>525.9467038763287</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X6" t="n">
-        <v>318.0952036707959</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="7">
@@ -4702,19 +4702,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W8" t="n">
-        <v>255.9366034337592</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X8" t="n">
-        <v>53.75394372784808</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>872.2223827727877</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>698.8050382234566</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>698.8050382234566</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>470.5814199598456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4990,22 +4990,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1283.784722140266</v>
       </c>
       <c r="F11" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G11" t="n">
         <v>457.2866824420198</v>
@@ -5036,31 +5036,31 @@
         <v>155.2001605676189</v>
       </c>
       <c r="I11" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J11" t="n">
-        <v>415.9620235708705</v>
+        <v>340.6580415521842</v>
       </c>
       <c r="K11" t="n">
-        <v>694.9648458151295</v>
+        <v>619.6608637964431</v>
       </c>
       <c r="L11" t="n">
-        <v>1491.478882189182</v>
+        <v>1416.174900170495</v>
       </c>
       <c r="M11" t="n">
-        <v>2394.360764952621</v>
+        <v>2319.056782933934</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.220222967306</v>
+        <v>3221.916240948619</v>
       </c>
       <c r="O11" t="n">
-        <v>3727.58498980979</v>
+        <v>3652.281007791104</v>
       </c>
       <c r="P11" t="n">
-        <v>4303.667099681198</v>
+        <v>4303.667099681199</v>
       </c>
       <c r="Q11" t="n">
-        <v>4715.609167289134</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R11" t="n">
         <v>4812.615767128013</v>
@@ -5069,7 +5069,7 @@
         <v>4692.305782331642</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U11" t="n">
         <v>4230.837663200371</v>
@@ -5115,28 +5115,28 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I12" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J12" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K12" t="n">
-        <v>494.0079564978282</v>
+        <v>369.1778315108235</v>
       </c>
       <c r="L12" t="n">
-        <v>810.6429769025935</v>
+        <v>685.8128519155889</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.497979178149</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N12" t="n">
-        <v>1613.053461205514</v>
+        <v>1488.223336218509</v>
       </c>
       <c r="O12" t="n">
-        <v>1969.156137440378</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P12" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q12" t="n">
         <v>2600.361752854265</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.25231534256025</v>
+        <v>104.8159271957618</v>
       </c>
       <c r="C13" t="n">
-        <v>96.25231534256025</v>
+        <v>104.8159271957618</v>
       </c>
       <c r="D13" t="n">
-        <v>96.25231534256025</v>
+        <v>104.8159271957618</v>
       </c>
       <c r="E13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I13" t="n">
-        <v>96.25231534256025</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J13" t="n">
         <v>127.7084527208552</v>
@@ -5227,22 +5227,22 @@
         <v>1570.27854041029</v>
       </c>
       <c r="T13" t="n">
-        <v>1378.249728361882</v>
+        <v>1347.669225901794</v>
       </c>
       <c r="U13" t="n">
-        <v>1089.136103626955</v>
+        <v>1058.555601166867</v>
       </c>
       <c r="V13" t="n">
-        <v>834.4516154210683</v>
+        <v>803.87111296098</v>
       </c>
       <c r="W13" t="n">
-        <v>545.0344453841077</v>
+        <v>514.4539429240189</v>
       </c>
       <c r="X13" t="n">
-        <v>317.0448944860904</v>
+        <v>286.4643920260015</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.25231534256025</v>
+        <v>286.4643920260015</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>872.7988173506587</v>
       </c>
       <c r="G14" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H14" t="n">
         <v>155.2001605676189</v>
@@ -5279,25 +5279,25 @@
         <v>415.9620235708706</v>
       </c>
       <c r="K14" t="n">
-        <v>694.9648458151296</v>
+        <v>962.9381789317882</v>
       </c>
       <c r="L14" t="n">
-        <v>1491.478882189182</v>
+        <v>1759.452215305841</v>
       </c>
       <c r="M14" t="n">
-        <v>2394.360764952621</v>
+        <v>2217.315699911375</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.220222967306</v>
+        <v>3120.17515792606</v>
       </c>
       <c r="O14" t="n">
-        <v>4104.577169259909</v>
+        <v>3927.532104218663</v>
       </c>
       <c r="P14" t="n">
-        <v>4437.382540060236</v>
+        <v>4578.918196108758</v>
       </c>
       <c r="Q14" t="n">
-        <v>4715.609167289135</v>
+        <v>4780.668422963388</v>
       </c>
       <c r="R14" t="n">
         <v>4812.615767128013</v>
@@ -5306,19 +5306,19 @@
         <v>4692.305782331643</v>
       </c>
       <c r="T14" t="n">
-        <v>4484.403314706827</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U14" t="n">
-        <v>4230.83766320037</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V14" t="n">
-        <v>3899.774775856799</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.006120586685</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X14" t="n">
-        <v>3173.540362325605</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y14" t="n">
         <v>2783.401030349795</v>
@@ -5355,25 +5355,25 @@
         <v>96.25231534256027</v>
       </c>
       <c r="J15" t="n">
-        <v>292.9758476495718</v>
+        <v>267.6807253429377</v>
       </c>
       <c r="K15" t="n">
-        <v>494.0079564978282</v>
+        <v>730.5334188336469</v>
       </c>
       <c r="L15" t="n">
-        <v>810.6429769025935</v>
+        <v>1047.168439238412</v>
       </c>
       <c r="M15" t="n">
-        <v>1199.497979178149</v>
+        <v>1436.023441513968</v>
       </c>
       <c r="N15" t="n">
-        <v>1613.053461205514</v>
+        <v>1849.578923541333</v>
       </c>
       <c r="O15" t="n">
-        <v>1969.156137440378</v>
+        <v>2205.681599776197</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q15" t="n">
         <v>2600.361752854265</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.1182953342696</v>
+        <v>189.5826070848764</v>
       </c>
       <c r="C16" t="n">
-        <v>562.1821124063628</v>
+        <v>189.5826070848764</v>
       </c>
       <c r="D16" t="n">
-        <v>412.0654729940271</v>
+        <v>189.5826070848764</v>
       </c>
       <c r="E16" t="n">
-        <v>264.1523794116339</v>
+        <v>189.5826070848764</v>
       </c>
       <c r="F16" t="n">
-        <v>264.1523794116339</v>
+        <v>189.5826070848764</v>
       </c>
       <c r="G16" t="n">
         <v>96.25231534256027</v>
@@ -5443,7 +5443,7 @@
         <v>597.0583571824202</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9143388153276</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N16" t="n">
         <v>1222.74214312947</v>
@@ -5458,28 +5458,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729649</v>
       </c>
       <c r="S16" t="n">
-        <v>1570.27854041029</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T16" t="n">
-        <v>1347.669225901793</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="U16" t="n">
-        <v>1347.669225901793</v>
+        <v>1182.466395369271</v>
       </c>
       <c r="V16" t="n">
-        <v>1347.669225901793</v>
+        <v>927.7819071633845</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.55933930804</v>
+        <v>638.3647371264238</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.55933930804</v>
+        <v>410.3751862284065</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.7667601645094</v>
+        <v>189.5826070848764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2396.801190285673</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.838673345262</v>
+        <v>2027.83867334526</v>
       </c>
       <c r="D17" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.784722140267</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F17" t="n">
-        <v>872.7988173506594</v>
+        <v>872.7988173506578</v>
       </c>
       <c r="G17" t="n">
-        <v>457.2866824420205</v>
+        <v>457.2866824420193</v>
       </c>
       <c r="H17" t="n">
         <v>155.2001605676189</v>
       </c>
       <c r="I17" t="n">
-        <v>96.25231534256027</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J17" t="n">
-        <v>415.9620235708706</v>
+        <v>415.9620235708705</v>
       </c>
       <c r="K17" t="n">
-        <v>694.9648458151296</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L17" t="n">
-        <v>1491.478882189182</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M17" t="n">
-        <v>2394.360764952621</v>
+        <v>2470.837165326889</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.220222967306</v>
+        <v>3373.696623341574</v>
       </c>
       <c r="O17" t="n">
-        <v>4104.577169259909</v>
+        <v>4181.053569634177</v>
       </c>
       <c r="P17" t="n">
-        <v>4437.382540060236</v>
+        <v>4513.858940434504</v>
       </c>
       <c r="Q17" t="n">
-        <v>4715.609167289135</v>
+        <v>4715.609167289134</v>
       </c>
       <c r="R17" t="n">
         <v>4812.615767128013</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.305782331643</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T17" t="n">
-        <v>4484.403314706827</v>
+        <v>4484.403314706825</v>
       </c>
       <c r="U17" t="n">
-        <v>4230.837663200372</v>
+        <v>4230.83766320037</v>
       </c>
       <c r="V17" t="n">
-        <v>3899.774775856801</v>
+        <v>3899.774775856799</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.006120586687</v>
+        <v>3547.006120586685</v>
       </c>
       <c r="X17" t="n">
-        <v>3173.540362325607</v>
+        <v>3173.540362325605</v>
       </c>
       <c r="Y17" t="n">
-        <v>2783.401030349795</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>113.1312674650428</v>
       </c>
       <c r="I18" t="n">
-        <v>96.25231534256027</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J18" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K18" t="n">
-        <v>522.5569039751563</v>
+        <v>369.1778315108235</v>
       </c>
       <c r="L18" t="n">
-        <v>839.1919243799216</v>
+        <v>701.280926563174</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.046926655477</v>
+        <v>1090.135928838729</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.602408682842</v>
+        <v>1503.691410866095</v>
       </c>
       <c r="O18" t="n">
-        <v>1997.705084917706</v>
+        <v>1859.794087100959</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.17581091941</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q18" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R18" t="n">
         <v>2600.361752854265</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>497.5965171195567</v>
+        <v>302.7315486811182</v>
       </c>
       <c r="C19" t="n">
-        <v>497.5965171195567</v>
+        <v>133.7953657532113</v>
       </c>
       <c r="D19" t="n">
-        <v>347.4798777072209</v>
+        <v>133.7953657532113</v>
       </c>
       <c r="E19" t="n">
-        <v>347.4798777072209</v>
+        <v>133.7953657532113</v>
       </c>
       <c r="F19" t="n">
-        <v>347.4798777072209</v>
+        <v>133.7953657532113</v>
       </c>
       <c r="G19" t="n">
-        <v>347.4798777072209</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H19" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I19" t="n">
-        <v>96.25231534256027</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="J19" t="n">
         <v>127.7084527208552</v>
       </c>
       <c r="K19" t="n">
-        <v>309.2373860905588</v>
+        <v>309.2373860905587</v>
       </c>
       <c r="L19" t="n">
         <v>597.0583571824201</v>
@@ -5698,25 +5698,25 @@
         <v>1666.703040729648</v>
       </c>
       <c r="S19" t="n">
-        <v>1666.703040729648</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T19" t="n">
-        <v>1666.703040729648</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U19" t="n">
-        <v>1377.589415994722</v>
+        <v>959.8570808607749</v>
       </c>
       <c r="V19" t="n">
-        <v>1122.904927788835</v>
+        <v>705.172592654888</v>
       </c>
       <c r="W19" t="n">
-        <v>1122.904927788835</v>
+        <v>705.172592654888</v>
       </c>
       <c r="X19" t="n">
-        <v>894.9153768908172</v>
+        <v>705.172592654888</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.122797747287</v>
+        <v>484.3800135113579</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C20" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D20" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E20" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F20" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G20" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H20" t="n">
         <v>155.2001605676189</v>
@@ -5759,13 +5759,13 @@
         <v>1644.977191614282</v>
       </c>
       <c r="M20" t="n">
-        <v>2102.840676219816</v>
+        <v>2547.85907437772</v>
       </c>
       <c r="N20" t="n">
-        <v>3005.700134234502</v>
+        <v>3163.504782588268</v>
       </c>
       <c r="O20" t="n">
-        <v>3813.057080527104</v>
+        <v>3970.861728880871</v>
       </c>
       <c r="P20" t="n">
         <v>4303.667099681198</v>
@@ -5786,16 +5786,16 @@
         <v>4230.837663200371</v>
       </c>
       <c r="V20" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856801</v>
       </c>
       <c r="W20" t="n">
         <v>3547.006120586686</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325607</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J21" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K21" t="n">
-        <v>522.5569039751563</v>
+        <v>415.2552778801091</v>
       </c>
       <c r="L21" t="n">
-        <v>839.1919243799216</v>
+        <v>731.8902982848745</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.046926655477</v>
+        <v>1120.74530056043</v>
       </c>
       <c r="N21" t="n">
-        <v>1641.602408682842</v>
+        <v>1534.300782587795</v>
       </c>
       <c r="O21" t="n">
-        <v>1997.705084917706</v>
+        <v>1890.403458822659</v>
       </c>
       <c r="P21" t="n">
-        <v>2264.17581091941</v>
+        <v>2472.1523257779</v>
       </c>
       <c r="Q21" t="n">
         <v>2600.361752854265</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.25231534256025</v>
+        <v>189.5826070848766</v>
       </c>
       <c r="C22" t="n">
-        <v>96.25231534256025</v>
+        <v>189.5826070848766</v>
       </c>
       <c r="D22" t="n">
         <v>96.25231534256025</v>
@@ -5908,16 +5908,16 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J22" t="n">
-        <v>127.7084527208551</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K22" t="n">
-        <v>309.2373860905586</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L22" t="n">
-        <v>597.05835718242</v>
+        <v>597.0583571824202</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9143388153276</v>
+        <v>910.9143388153275</v>
       </c>
       <c r="N22" t="n">
         <v>1222.742143129469</v>
@@ -5929,31 +5929,31 @@
         <v>1703.977723167557</v>
       </c>
       <c r="Q22" t="n">
-        <v>1765.401561035739</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="R22" t="n">
-        <v>1765.401561035739</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S22" t="n">
-        <v>1765.401561035739</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.792246527243</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.678621792316</v>
+        <v>1182.466395369272</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9941335864288</v>
+        <v>927.7819071633847</v>
       </c>
       <c r="W22" t="n">
-        <v>709.5769635494681</v>
+        <v>638.3647371264241</v>
       </c>
       <c r="X22" t="n">
-        <v>481.5874126514508</v>
+        <v>410.3751862284067</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.7948335079205</v>
+        <v>189.5826070848766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285673</v>
       </c>
       <c r="C23" t="n">
         <v>2027.838673345261</v>
       </c>
       <c r="D23" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E23" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F23" t="n">
-        <v>872.7988173506583</v>
+        <v>872.7988173506587</v>
       </c>
       <c r="G23" t="n">
-        <v>457.2866824420194</v>
+        <v>457.2866824420198</v>
       </c>
       <c r="H23" t="n">
         <v>155.2001605676189</v>
@@ -5993,19 +5993,19 @@
         <v>1015.868804260583</v>
       </c>
       <c r="L23" t="n">
-        <v>1812.382840634635</v>
+        <v>1626.3667409238</v>
       </c>
       <c r="M23" t="n">
-        <v>2270.246325240169</v>
+        <v>2529.248623687239</v>
       </c>
       <c r="N23" t="n">
-        <v>3173.105783254854</v>
+        <v>3432.108081701924</v>
       </c>
       <c r="O23" t="n">
-        <v>3980.462729547457</v>
+        <v>3862.472848544409</v>
       </c>
       <c r="P23" t="n">
-        <v>4313.268100347784</v>
+        <v>4513.858940434504</v>
       </c>
       <c r="Q23" t="n">
         <v>4715.609167289134</v>
@@ -6032,7 +6032,7 @@
         <v>3173.540362325606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349795</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J24" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K24" t="n">
-        <v>522.5569039751563</v>
+        <v>369.1778315108235</v>
       </c>
       <c r="L24" t="n">
-        <v>839.1919243799216</v>
+        <v>685.8128519155889</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.046926655477</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N24" t="n">
         <v>1641.602408682842</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.1523794116339</v>
+        <v>295.5345769266308</v>
       </c>
       <c r="C25" t="n">
-        <v>264.1523794116339</v>
+        <v>246.368954754896</v>
       </c>
       <c r="D25" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="E25" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="F25" t="n">
-        <v>264.1523794116339</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G25" t="n">
         <v>96.25231534256025</v>
@@ -6148,13 +6148,13 @@
         <v>127.7084527208552</v>
       </c>
       <c r="K25" t="n">
-        <v>309.2373860905587</v>
+        <v>309.2373860905588</v>
       </c>
       <c r="L25" t="n">
-        <v>597.0583571824202</v>
+        <v>597.05835718242</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9143388153278</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N25" t="n">
         <v>1222.74214312947</v>
@@ -6169,28 +6169,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R25" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729649</v>
       </c>
       <c r="S25" t="n">
-        <v>1765.40156103574</v>
+        <v>1471.580020104199</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.792246527243</v>
+        <v>1248.970705595702</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.678621792316</v>
+        <v>959.8570808607748</v>
       </c>
       <c r="V25" t="n">
-        <v>1002.351679490142</v>
+        <v>705.1725926548879</v>
       </c>
       <c r="W25" t="n">
-        <v>712.9345094531814</v>
+        <v>705.1725926548879</v>
       </c>
       <c r="X25" t="n">
-        <v>484.944958555164</v>
+        <v>477.1830417568706</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.1523794116339</v>
+        <v>477.1830417568706</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2396.801190285659</v>
+        <v>2396.801190285672</v>
       </c>
       <c r="C26" t="n">
-        <v>2027.838673345248</v>
+        <v>2027.838673345261</v>
       </c>
       <c r="D26" t="n">
-        <v>1669.572974738497</v>
+        <v>1669.572974738511</v>
       </c>
       <c r="E26" t="n">
-        <v>1283.784722140253</v>
+        <v>1283.784722140267</v>
       </c>
       <c r="F26" t="n">
-        <v>872.7988173506584</v>
+        <v>872.7988173506594</v>
       </c>
       <c r="G26" t="n">
-        <v>457.2866824420196</v>
+        <v>457.2866824420199</v>
       </c>
       <c r="H26" t="n">
-        <v>155.2001605676186</v>
+        <v>155.2001605676189</v>
       </c>
       <c r="I26" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J26" t="n">
-        <v>248.5563745505173</v>
+        <v>415.9620235708706</v>
       </c>
       <c r="K26" t="n">
-        <v>836.5005018636383</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L26" t="n">
-        <v>1633.014538237691</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M26" t="n">
-        <v>2535.89642100113</v>
+        <v>2270.24632524017</v>
       </c>
       <c r="N26" t="n">
-        <v>3438.755879015815</v>
+        <v>3055.115902251807</v>
       </c>
       <c r="O26" t="n">
-        <v>4246.112825308417</v>
+        <v>3862.47284854441</v>
       </c>
       <c r="P26" t="n">
-        <v>4578.918196108744</v>
+        <v>4513.858940434505</v>
       </c>
       <c r="Q26" t="n">
-        <v>4780.668422963375</v>
+        <v>4715.609167289135</v>
       </c>
       <c r="R26" t="n">
-        <v>4812.615767128</v>
+        <v>4812.615767128013</v>
       </c>
       <c r="S26" t="n">
-        <v>4692.305782331629</v>
+        <v>4692.305782331642</v>
       </c>
       <c r="T26" t="n">
-        <v>4484.403314706813</v>
+        <v>4484.403314706826</v>
       </c>
       <c r="U26" t="n">
-        <v>4230.837663200358</v>
+        <v>4230.837663200371</v>
       </c>
       <c r="V26" t="n">
-        <v>3899.774775856787</v>
+        <v>3899.7747758568</v>
       </c>
       <c r="W26" t="n">
-        <v>3547.006120586672</v>
+        <v>3547.006120586686</v>
       </c>
       <c r="X26" t="n">
-        <v>3173.540362325592</v>
+        <v>3173.540362325606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2783.401030349781</v>
+        <v>2783.401030349794</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>971.6630058531879</v>
+        <v>971.6630058531881</v>
       </c>
       <c r="C27" t="n">
-        <v>797.2099765720609</v>
+        <v>797.2099765720611</v>
       </c>
       <c r="D27" t="n">
-        <v>648.2755669108096</v>
+        <v>648.2755669108099</v>
       </c>
       <c r="E27" t="n">
-        <v>489.0381119053542</v>
+        <v>489.0381119053544</v>
       </c>
       <c r="F27" t="n">
-        <v>342.5035539322391</v>
+        <v>342.5035539322394</v>
       </c>
       <c r="G27" t="n">
-        <v>205.9052016818154</v>
+        <v>205.9052016818157</v>
       </c>
       <c r="H27" t="n">
-        <v>113.1312674650425</v>
+        <v>113.1312674650428</v>
       </c>
       <c r="I27" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J27" t="n">
-        <v>292.9758476495716</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K27" t="n">
-        <v>730.5334188336469</v>
+        <v>369.1778315108235</v>
       </c>
       <c r="L27" t="n">
-        <v>1047.168439238412</v>
+        <v>685.8128519155889</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.023441513968</v>
+        <v>1074.667854191144</v>
       </c>
       <c r="N27" t="n">
         <v>1849.578923541333</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>286.4643920260015</v>
+        <v>244.1654089249534</v>
       </c>
       <c r="C28" t="n">
-        <v>286.4643920260015</v>
+        <v>244.1654089249534</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1654089249531</v>
+        <v>244.1654089249534</v>
       </c>
       <c r="E28" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="F28" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="G28" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="H28" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="I28" t="n">
-        <v>96.25231534256</v>
+        <v>96.25231534256027</v>
       </c>
       <c r="J28" t="n">
-        <v>127.708452720855</v>
+        <v>127.7084527208552</v>
       </c>
       <c r="K28" t="n">
-        <v>309.2373860905585</v>
+        <v>309.2373860905586</v>
       </c>
       <c r="L28" t="n">
         <v>597.05835718242</v>
@@ -6406,28 +6406,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R28" t="n">
-        <v>1765.40156103574</v>
+        <v>1666.703040729648</v>
       </c>
       <c r="S28" t="n">
-        <v>1570.27854041029</v>
+        <v>1471.580020104198</v>
       </c>
       <c r="T28" t="n">
-        <v>1347.669225901793</v>
+        <v>1248.970705595701</v>
       </c>
       <c r="U28" t="n">
-        <v>1058.555601166866</v>
+        <v>1197.905082896058</v>
       </c>
       <c r="V28" t="n">
-        <v>803.8711129609794</v>
+        <v>943.2205946901707</v>
       </c>
       <c r="W28" t="n">
-        <v>514.4539429240189</v>
+        <v>653.8034246532102</v>
       </c>
       <c r="X28" t="n">
-        <v>286.4643920260015</v>
+        <v>425.8138737551931</v>
       </c>
       <c r="Y28" t="n">
-        <v>286.4643920260015</v>
+        <v>425.8138737551931</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2396.801190285672</v>
+        <v>2396.801190285671</v>
       </c>
       <c r="C29" t="n">
-        <v>2027.838673345261</v>
+        <v>2027.838673345259</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.57297473851</v>
+        <v>1669.572974738509</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.784722140266</v>
+        <v>1283.784722140265</v>
       </c>
       <c r="F29" t="n">
-        <v>872.7988173506585</v>
+        <v>872.7988173506574</v>
       </c>
       <c r="G29" t="n">
-        <v>457.2866824420199</v>
+        <v>457.2866824420189</v>
       </c>
       <c r="H29" t="n">
-        <v>155.2001605676189</v>
+        <v>155.2001605676186</v>
       </c>
       <c r="I29" t="n">
         <v>96.25231534256025</v>
@@ -6464,22 +6464,22 @@
         <v>415.9620235708705</v>
       </c>
       <c r="K29" t="n">
-        <v>694.9648458151295</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L29" t="n">
-        <v>1491.478882189182</v>
+        <v>1812.382840634635</v>
       </c>
       <c r="M29" t="n">
-        <v>2394.360764952621</v>
+        <v>2715.264723398074</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.220222967306</v>
+        <v>3185.150726244894</v>
       </c>
       <c r="O29" t="n">
-        <v>4104.577169259908</v>
+        <v>3652.281007791103</v>
       </c>
       <c r="P29" t="n">
-        <v>4437.382540060235</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q29" t="n">
         <v>4715.609167289134</v>
@@ -6488,25 +6488,25 @@
         <v>4812.615767128013</v>
       </c>
       <c r="S29" t="n">
-        <v>4692.305782331642</v>
+        <v>4692.305782331641</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.403314706825</v>
+        <v>4484.403314706824</v>
       </c>
       <c r="U29" t="n">
-        <v>4230.837663200371</v>
+        <v>4230.837663200369</v>
       </c>
       <c r="V29" t="n">
-        <v>3899.7747758568</v>
+        <v>3899.774775856798</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.006120586686</v>
+        <v>3547.006120586684</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.540362325606</v>
+        <v>3173.540362325604</v>
       </c>
       <c r="Y29" t="n">
-        <v>2783.401030349794</v>
+        <v>2783.401030349793</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J30" t="n">
-        <v>290.9154234051994</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K30" t="n">
-        <v>491.9475322534558</v>
+        <v>630.9984161532763</v>
       </c>
       <c r="L30" t="n">
-        <v>808.5825526582212</v>
+        <v>947.6334365580417</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.437554933776</v>
+        <v>1405.414069792267</v>
       </c>
       <c r="N30" t="n">
-        <v>1610.993036961142</v>
+        <v>1818.969551819632</v>
       </c>
       <c r="O30" t="n">
-        <v>1967.095713196006</v>
+        <v>2175.072228054496</v>
       </c>
       <c r="P30" t="n">
-        <v>2233.566439197709</v>
+        <v>2441.5429540562</v>
       </c>
       <c r="Q30" t="n">
         <v>2569.752381132564</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>731.5639846607238</v>
+        <v>394.2820483372891</v>
       </c>
       <c r="C31" t="n">
-        <v>731.5639846607238</v>
+        <v>394.2820483372891</v>
       </c>
       <c r="D31" t="n">
-        <v>581.447345248388</v>
+        <v>244.1654089249533</v>
       </c>
       <c r="E31" t="n">
-        <v>433.5342516659948</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="F31" t="n">
-        <v>286.6443041680845</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G31" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H31" t="n">
-        <v>199.5091596520865</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I31" t="n">
         <v>96.25231534256025</v>
@@ -6628,7 +6628,7 @@
         <v>597.0583571824202</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9143388153279</v>
+        <v>910.9143388153277</v>
       </c>
       <c r="N31" t="n">
         <v>1222.74214312947</v>
@@ -6643,28 +6643,28 @@
         <v>1765.40156103574</v>
       </c>
       <c r="R31" t="n">
-        <v>1666.703040729648</v>
+        <v>1765.40156103574</v>
       </c>
       <c r="S31" t="n">
-        <v>1471.580020104199</v>
+        <v>1570.27854041029</v>
       </c>
       <c r="T31" t="n">
-        <v>1248.970705595702</v>
+        <v>1347.669225901793</v>
       </c>
       <c r="U31" t="n">
-        <v>1248.970705595702</v>
+        <v>1097.748666584723</v>
       </c>
       <c r="V31" t="n">
-        <v>1248.970705595702</v>
+        <v>843.0641783788366</v>
       </c>
       <c r="W31" t="n">
-        <v>959.5535355587411</v>
+        <v>843.0641783788366</v>
       </c>
       <c r="X31" t="n">
-        <v>731.5639846607238</v>
+        <v>615.0746274808192</v>
       </c>
       <c r="Y31" t="n">
-        <v>731.5639846607238</v>
+        <v>394.2820483372891</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>2027.838673345261</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.572974738511</v>
+        <v>1669.57297473851</v>
       </c>
       <c r="E32" t="n">
         <v>1283.784722140266</v>
       </c>
       <c r="F32" t="n">
-        <v>872.7988173506587</v>
+        <v>872.7988173506585</v>
       </c>
       <c r="G32" t="n">
         <v>457.2866824420198</v>
@@ -6701,22 +6701,22 @@
         <v>415.9620235708705</v>
       </c>
       <c r="K32" t="n">
-        <v>694.9648458151295</v>
+        <v>1015.868804260583</v>
       </c>
       <c r="L32" t="n">
-        <v>1491.478882189182</v>
+        <v>1398.898238229689</v>
       </c>
       <c r="M32" t="n">
-        <v>2394.360764952621</v>
+        <v>2301.780120993128</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.220222967306</v>
+        <v>3163.504782588268</v>
       </c>
       <c r="O32" t="n">
-        <v>4104.577169259908</v>
+        <v>3970.861728880871</v>
       </c>
       <c r="P32" t="n">
-        <v>4437.382540060235</v>
+        <v>4303.667099681198</v>
       </c>
       <c r="Q32" t="n">
         <v>4715.609167289134</v>
@@ -6777,28 +6777,28 @@
         <v>96.25231534256025</v>
       </c>
       <c r="J33" t="n">
-        <v>292.9758476495718</v>
+        <v>168.1457226625671</v>
       </c>
       <c r="K33" t="n">
-        <v>522.5569039751563</v>
+        <v>491.9475322534558</v>
       </c>
       <c r="L33" t="n">
-        <v>839.1919243799216</v>
+        <v>808.5825526582212</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.046926655477</v>
+        <v>1197.437554933776</v>
       </c>
       <c r="N33" t="n">
-        <v>1641.602408682842</v>
+        <v>1610.993036961142</v>
       </c>
       <c r="O33" t="n">
-        <v>1997.705084917706</v>
+        <v>1967.095713196006</v>
       </c>
       <c r="P33" t="n">
-        <v>2264.17581091941</v>
+        <v>2233.566439197709</v>
       </c>
       <c r="Q33" t="n">
-        <v>2600.361752854265</v>
+        <v>2569.752381132564</v>
       </c>
       <c r="R33" t="n">
         <v>2600.361752854265</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.3754195699848</v>
+        <v>363.1377255955347</v>
       </c>
       <c r="C34" t="n">
-        <v>802.3754195699848</v>
+        <v>219.1834757962905</v>
       </c>
       <c r="D34" t="n">
-        <v>677.240713286312</v>
+        <v>219.1834757962905</v>
       </c>
       <c r="E34" t="n">
-        <v>554.3095528325817</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="F34" t="n">
-        <v>432.4015384633342</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="G34" t="n">
-        <v>289.4834075229235</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="H34" t="n">
-        <v>166.4946225964519</v>
+        <v>96.25231534256025</v>
       </c>
       <c r="I34" t="n">
         <v>96.25231534256025</v>
       </c>
       <c r="J34" t="n">
-        <v>152.1932453802576</v>
+        <v>152.1932453802574</v>
       </c>
       <c r="K34" t="n">
-        <v>358.2069714093636</v>
+        <v>358.2069714093633</v>
       </c>
       <c r="L34" t="n">
-        <v>670.5127351606275</v>
+        <v>670.5127351606271</v>
       </c>
       <c r="M34" t="n">
         <v>1008.853509452937</v>
@@ -6871,37 +6871,37 @@
         <v>1345.166106426482</v>
       </c>
       <c r="O34" t="n">
-        <v>1641.658051648162</v>
+        <v>1641.658051648161</v>
       </c>
       <c r="P34" t="n">
         <v>1875.371271783374</v>
       </c>
       <c r="Q34" t="n">
-        <v>1961.27990231096</v>
+        <v>1961.279902310959</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.27990231096</v>
+        <v>1961.279902310959</v>
       </c>
       <c r="S34" t="n">
-        <v>1961.27990231096</v>
+        <v>1874.519386052954</v>
       </c>
       <c r="T34" t="n">
-        <v>1763.652520931126</v>
+        <v>1676.89200467312</v>
       </c>
       <c r="U34" t="n">
-        <v>1499.520829324861</v>
+        <v>1412.760313066855</v>
       </c>
       <c r="V34" t="n">
-        <v>1269.818274247637</v>
+        <v>1183.057757989631</v>
       </c>
       <c r="W34" t="n">
-        <v>1005.383037339339</v>
+        <v>918.6225210813335</v>
       </c>
       <c r="X34" t="n">
-        <v>802.3754195699848</v>
+        <v>715.6149033119789</v>
       </c>
       <c r="Y34" t="n">
-        <v>802.3754195699848</v>
+        <v>519.8042572971116</v>
       </c>
     </row>
     <row r="35">
@@ -6923,55 +6923,55 @@
         <v>1041.047681880267</v>
       </c>
       <c r="F35" t="n">
-        <v>686.4319902316074</v>
+        <v>686.4319902316072</v>
       </c>
       <c r="G35" t="n">
-        <v>327.2900684639158</v>
+        <v>327.2900684639167</v>
       </c>
       <c r="H35" t="n">
-        <v>81.57375973046291</v>
+        <v>81.57375973046297</v>
       </c>
       <c r="I35" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J35" t="n">
-        <v>398.7058358746622</v>
+        <v>231.3001868543091</v>
       </c>
       <c r="K35" t="n">
-        <v>677.7086581189211</v>
+        <v>831.2069675440212</v>
       </c>
       <c r="L35" t="n">
-        <v>1060.738092088028</v>
+        <v>1214.236401513128</v>
       </c>
       <c r="M35" t="n">
-        <v>1963.619974851466</v>
+        <v>1672.099886118662</v>
       </c>
       <c r="N35" t="n">
-        <v>2433.505977698287</v>
+        <v>2574.959344133348</v>
       </c>
       <c r="O35" t="n">
-        <v>3108.05234407045</v>
+        <v>3382.31629042595</v>
       </c>
       <c r="P35" t="n">
-        <v>3440.857714870777</v>
+        <v>3716.108811298336</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.799782478713</v>
+        <v>3917.859038152966</v>
       </c>
       <c r="R35" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S35" t="n">
-        <v>3885.866610662167</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T35" t="n">
-        <v>3734.334356178298</v>
+        <v>3734.334356178299</v>
       </c>
       <c r="U35" t="n">
         <v>3537.138917812792</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.446243610168</v>
+        <v>3262.446243610169</v>
       </c>
       <c r="W35" t="n">
         <v>2966.047801481002</v>
@@ -7008,31 +7008,31 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H36" t="n">
-        <v>95.87507976883434</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I36" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J36" t="n">
-        <v>275.7196599533634</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K36" t="n">
-        <v>505.3007162789481</v>
+        <v>351.9216438146151</v>
       </c>
       <c r="L36" t="n">
-        <v>821.9357366837135</v>
+        <v>668.5566642193805</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.790738959269</v>
+        <v>1057.411666494936</v>
       </c>
       <c r="N36" t="n">
-        <v>1624.346220986634</v>
+        <v>1470.967148522301</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.448897221498</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P36" t="n">
-        <v>2246.919623223202</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q36" t="n">
         <v>2583.105565158056</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.3881255140016</v>
+        <v>717.3881255140002</v>
       </c>
       <c r="C37" t="n">
-        <v>604.8221557270422</v>
+        <v>604.8221557270408</v>
       </c>
       <c r="D37" t="n">
-        <v>511.0757294556518</v>
+        <v>511.0757294556525</v>
       </c>
       <c r="E37" t="n">
-        <v>419.5328490142062</v>
+        <v>419.5328490142069</v>
       </c>
       <c r="F37" t="n">
-        <v>329.0131146572435</v>
+        <v>329.013114657244</v>
       </c>
       <c r="G37" t="n">
-        <v>217.4832637291174</v>
+        <v>217.4832637291179</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8827588149305</v>
+        <v>125.8827588149309</v>
       </c>
       <c r="I37" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J37" t="n">
-        <v>165.7007109240895</v>
+        <v>165.7007109240894</v>
       </c>
       <c r="K37" t="n">
-        <v>402.4780901932357</v>
+        <v>402.4780901932356</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5475071845399</v>
+        <v>745.5475071845397</v>
       </c>
       <c r="M37" t="n">
         <v>1114.65193471689</v>
@@ -7108,7 +7108,7 @@
         <v>1481.728184930475</v>
       </c>
       <c r="O37" t="n">
-        <v>1808.983783392195</v>
+        <v>1808.983783392194</v>
       </c>
       <c r="P37" t="n">
         <v>2073.460656767447</v>
@@ -7120,25 +7120,25 @@
         <v>2147.804633369929</v>
       </c>
       <c r="S37" t="n">
-        <v>2009.051825885427</v>
+        <v>2009.051825885426</v>
       </c>
       <c r="T37" t="n">
-        <v>1842.812724517878</v>
+        <v>1842.812724517877</v>
       </c>
       <c r="U37" t="n">
         <v>1610.069312923898</v>
       </c>
       <c r="V37" t="n">
-        <v>1411.755037858959</v>
+        <v>1411.755037858958</v>
       </c>
       <c r="W37" t="n">
-        <v>1178.708080962946</v>
+        <v>1178.708080962945</v>
       </c>
       <c r="X37" t="n">
-        <v>1007.088743205876</v>
+        <v>1007.088743205875</v>
       </c>
       <c r="Y37" t="n">
-        <v>842.6663772032937</v>
+        <v>842.6663772032924</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>686.4319902316072</v>
       </c>
       <c r="G38" t="n">
-        <v>327.2900684639158</v>
+        <v>327.2900684639162</v>
       </c>
       <c r="H38" t="n">
-        <v>81.57375973046223</v>
+        <v>81.57375973046297</v>
       </c>
       <c r="I38" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J38" t="n">
-        <v>355.8405100675315</v>
+        <v>231.3001868543091</v>
       </c>
       <c r="K38" t="n">
-        <v>634.8433323117904</v>
+        <v>510.303009098568</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.357368685843</v>
+        <v>1306.81704547262</v>
       </c>
       <c r="M38" t="n">
-        <v>1889.220853291377</v>
+        <v>1764.680530078155</v>
       </c>
       <c r="N38" t="n">
-        <v>2359.106856138198</v>
+        <v>2667.53998809284</v>
       </c>
       <c r="O38" t="n">
-        <v>2789.471622980683</v>
+        <v>3383.303440498009</v>
       </c>
       <c r="P38" t="n">
-        <v>3440.857714870777</v>
+        <v>3716.108811298336</v>
       </c>
       <c r="Q38" t="n">
-        <v>3852.799782478713</v>
+        <v>3917.859038152966</v>
       </c>
       <c r="R38" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S38" t="n">
         <v>3885.866610662168</v>
@@ -7245,31 +7245,31 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H39" t="n">
-        <v>95.87507976883435</v>
+        <v>95.87507976883437</v>
       </c>
       <c r="I39" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J39" t="n">
-        <v>275.7196599533634</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K39" t="n">
-        <v>505.3007162789486</v>
+        <v>613.7422284570678</v>
       </c>
       <c r="L39" t="n">
-        <v>821.9357366837139</v>
+        <v>1029.912251542204</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.790738959269</v>
+        <v>1418.767253817759</v>
       </c>
       <c r="N39" t="n">
-        <v>1624.346220986634</v>
+        <v>1832.322735845124</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.448897221498</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P39" t="n">
-        <v>2246.919623223202</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q39" t="n">
         <v>2583.105565158056</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.3881255139997</v>
+        <v>717.3881255140001</v>
       </c>
       <c r="C40" t="n">
-        <v>604.8221557270404</v>
+        <v>604.8221557270407</v>
       </c>
       <c r="D40" t="n">
-        <v>511.0757294556521</v>
+        <v>511.0757294556524</v>
       </c>
       <c r="E40" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142068</v>
       </c>
       <c r="F40" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572439</v>
       </c>
       <c r="G40" t="n">
-        <v>217.4832637291175</v>
+        <v>217.4832637291178</v>
       </c>
       <c r="H40" t="n">
         <v>125.8827588149305</v>
       </c>
       <c r="I40" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J40" t="n">
-        <v>165.7007109240893</v>
+        <v>165.7007109240894</v>
       </c>
       <c r="K40" t="n">
-        <v>402.4780901932355</v>
+        <v>402.4780901932354</v>
       </c>
       <c r="L40" t="n">
         <v>745.5475071845394</v>
@@ -7354,7 +7354,7 @@
         <v>2190.132940535073</v>
       </c>
       <c r="R40" t="n">
-        <v>2147.804633369928</v>
+        <v>2147.804633369929</v>
       </c>
       <c r="S40" t="n">
         <v>2009.051825885426</v>
@@ -7369,13 +7369,13 @@
         <v>1411.755037858958</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.708080962944</v>
+        <v>1178.708080962945</v>
       </c>
       <c r="X40" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y40" t="n">
-        <v>842.666377203292</v>
+        <v>842.6663772032923</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1041.047681880268</v>
       </c>
       <c r="F41" t="n">
-        <v>686.431990231608</v>
+        <v>686.4319902316079</v>
       </c>
       <c r="G41" t="n">
-        <v>327.2900684639166</v>
+        <v>327.2900684639164</v>
       </c>
       <c r="H41" t="n">
-        <v>81.573759730463</v>
+        <v>81.57375973046295</v>
       </c>
       <c r="I41" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J41" t="n">
-        <v>398.7058358746622</v>
+        <v>231.3001868543091</v>
       </c>
       <c r="K41" t="n">
-        <v>677.7086581189211</v>
+        <v>510.3030090985681</v>
       </c>
       <c r="L41" t="n">
-        <v>1474.222694492973</v>
+        <v>893.3324430676746</v>
       </c>
       <c r="M41" t="n">
-        <v>2041.001235684332</v>
+        <v>1351.195927673209</v>
       </c>
       <c r="N41" t="n">
-        <v>2510.887238531153</v>
+        <v>2254.055385687895</v>
       </c>
       <c r="O41" t="n">
-        <v>3318.244184823755</v>
+        <v>3061.412331980497</v>
       </c>
       <c r="P41" t="n">
-        <v>3651.049555624083</v>
+        <v>3712.798423870592</v>
       </c>
       <c r="Q41" t="n">
-        <v>3852.799782478713</v>
+        <v>3914.548650725223</v>
       </c>
       <c r="R41" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S41" t="n">
-        <v>3885.866610662168</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T41" t="n">
-        <v>3734.334356178299</v>
+        <v>3734.3343561783</v>
       </c>
       <c r="U41" t="n">
         <v>3537.138917812793</v>
@@ -7482,34 +7482,34 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H42" t="n">
-        <v>95.87507976883434</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I42" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J42" t="n">
-        <v>273.6592357089912</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K42" t="n">
-        <v>474.6913445572476</v>
+        <v>351.9216438146151</v>
       </c>
       <c r="L42" t="n">
-        <v>791.326364962013</v>
+        <v>668.5566642193805</v>
       </c>
       <c r="M42" t="n">
-        <v>1180.181367237568</v>
+        <v>1418.767253817759</v>
       </c>
       <c r="N42" t="n">
-        <v>1593.736849264934</v>
+        <v>1832.322735845124</v>
       </c>
       <c r="O42" t="n">
-        <v>1949.839525499798</v>
+        <v>2188.425412079989</v>
       </c>
       <c r="P42" t="n">
-        <v>2216.310251501501</v>
+        <v>2454.896138081692</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.496193436356</v>
+        <v>2583.105565158056</v>
       </c>
       <c r="R42" t="n">
         <v>2583.105565158056</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.3881255139999</v>
+        <v>717.3881255139997</v>
       </c>
       <c r="C43" t="n">
         <v>604.8221557270404</v>
       </c>
       <c r="D43" t="n">
-        <v>511.0757294556521</v>
+        <v>511.075729455652</v>
       </c>
       <c r="E43" t="n">
-        <v>419.5328490142065</v>
+        <v>419.5328490142064</v>
       </c>
       <c r="F43" t="n">
-        <v>329.0131146572436</v>
+        <v>329.0131146572435</v>
       </c>
       <c r="G43" t="n">
         <v>217.4832637291174</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8827588149304</v>
+        <v>125.8827588149305</v>
       </c>
       <c r="I43" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J43" t="n">
         <v>165.7007109240894</v>
@@ -7573,7 +7573,7 @@
         <v>402.4780901932356</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5475071845394</v>
+        <v>745.5475071845397</v>
       </c>
       <c r="M43" t="n">
         <v>1114.65193471689</v>
@@ -7585,34 +7585,34 @@
         <v>1808.983783392194</v>
       </c>
       <c r="P43" t="n">
-        <v>2073.460656767446</v>
+        <v>2073.460656767447</v>
       </c>
       <c r="Q43" t="n">
-        <v>2190.132940535072</v>
+        <v>2190.132940535073</v>
       </c>
       <c r="R43" t="n">
         <v>2147.804633369929</v>
       </c>
       <c r="S43" t="n">
-        <v>2009.051825885426</v>
+        <v>2009.051825885427</v>
       </c>
       <c r="T43" t="n">
         <v>1842.812724517877</v>
       </c>
       <c r="U43" t="n">
-        <v>1610.069312923897</v>
+        <v>1610.069312923898</v>
       </c>
       <c r="V43" t="n">
         <v>1411.755037858958</v>
       </c>
       <c r="W43" t="n">
-        <v>1178.708080962944</v>
+        <v>1178.708080962945</v>
       </c>
       <c r="X43" t="n">
         <v>1007.088743205875</v>
       </c>
       <c r="Y43" t="n">
-        <v>842.6663772032921</v>
+        <v>842.666377203292</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.953510602832</v>
+        <v>1984.953510602831</v>
       </c>
       <c r="C44" t="n">
-        <v>1672.361206803368</v>
+        <v>1672.361206803367</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.465721337565</v>
+        <v>1370.465721337564</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.047681880268</v>
+        <v>1041.047681880267</v>
       </c>
       <c r="F44" t="n">
-        <v>686.431990231608</v>
+        <v>686.4319902316074</v>
       </c>
       <c r="G44" t="n">
-        <v>327.2900684639166</v>
+        <v>327.2900684639162</v>
       </c>
       <c r="H44" t="n">
-        <v>81.573759730463</v>
+        <v>81.57375973046295</v>
       </c>
       <c r="I44" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J44" t="n">
         <v>231.3001868543091</v>
@@ -7652,28 +7652,28 @@
         <v>510.3030090985681</v>
       </c>
       <c r="L44" t="n">
-        <v>893.3324430676746</v>
+        <v>1306.817045472621</v>
       </c>
       <c r="M44" t="n">
-        <v>1796.214325831113</v>
+        <v>1764.680530078155</v>
       </c>
       <c r="N44" t="n">
-        <v>2699.073783845799</v>
+        <v>2667.53998809284</v>
       </c>
       <c r="O44" t="n">
-        <v>3129.438550688283</v>
+        <v>3318.244184823756</v>
       </c>
       <c r="P44" t="n">
-        <v>3716.108811298335</v>
+        <v>3651.049555624083</v>
       </c>
       <c r="Q44" t="n">
-        <v>3917.859038152966</v>
+        <v>3852.799782478713</v>
       </c>
       <c r="R44" t="n">
-        <v>3949.806382317591</v>
+        <v>3949.806382317592</v>
       </c>
       <c r="S44" t="n">
-        <v>3885.866610662168</v>
+        <v>3885.866610662169</v>
       </c>
       <c r="T44" t="n">
         <v>3734.334356178299</v>
@@ -7688,10 +7688,10 @@
         <v>2966.047801481002</v>
       </c>
       <c r="X44" t="n">
-        <v>2648.952256360871</v>
+        <v>2648.95225636087</v>
       </c>
       <c r="Y44" t="n">
-        <v>2315.183137526006</v>
+        <v>2315.183137526005</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>188.6490139856073</v>
       </c>
       <c r="H45" t="n">
-        <v>95.87507976883434</v>
+        <v>95.87507976883435</v>
       </c>
       <c r="I45" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J45" t="n">
-        <v>273.6592357089912</v>
+        <v>150.8895349663587</v>
       </c>
       <c r="K45" t="n">
-        <v>474.6913445572476</v>
+        <v>351.9216438146151</v>
       </c>
       <c r="L45" t="n">
-        <v>791.326364962013</v>
+        <v>668.5566642193805</v>
       </c>
       <c r="M45" t="n">
-        <v>1180.181367237568</v>
+        <v>1057.411666494936</v>
       </c>
       <c r="N45" t="n">
-        <v>1593.736849264934</v>
+        <v>1470.967148522301</v>
       </c>
       <c r="O45" t="n">
-        <v>1949.839525499798</v>
+        <v>1842.537899404751</v>
       </c>
       <c r="P45" t="n">
-        <v>2216.310251501501</v>
+        <v>2424.286766359992</v>
       </c>
       <c r="Q45" t="n">
         <v>2552.496193436356</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>717.3881255139997</v>
+        <v>717.3881255140011</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8221557270402</v>
+        <v>604.8221557270417</v>
       </c>
       <c r="D46" t="n">
-        <v>511.075729455652</v>
+        <v>511.0757294556535</v>
       </c>
       <c r="E46" t="n">
-        <v>419.5328490142064</v>
+        <v>419.5328490142079</v>
       </c>
       <c r="F46" t="n">
-        <v>329.0131146572435</v>
+        <v>329.0131146572451</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4832637291173</v>
+        <v>217.4832637291174</v>
       </c>
       <c r="H46" t="n">
         <v>125.8827588149305</v>
       </c>
       <c r="I46" t="n">
-        <v>78.99612764635182</v>
+        <v>78.99612764635184</v>
       </c>
       <c r="J46" t="n">
-        <v>165.7007109240894</v>
+        <v>165.7007109240892</v>
       </c>
       <c r="K46" t="n">
-        <v>402.4780901932356</v>
+        <v>402.4780901932354</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5475071845397</v>
+        <v>745.5475071845394</v>
       </c>
       <c r="M46" t="n">
         <v>1114.65193471689</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.728184930474</v>
+        <v>1481.728184930475</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.983783392194</v>
+        <v>1808.983783392195</v>
       </c>
       <c r="P46" t="n">
         <v>2073.460656767447</v>
@@ -7837,19 +7837,19 @@
         <v>1842.812724517877</v>
       </c>
       <c r="U46" t="n">
-        <v>1610.069312923897</v>
+        <v>1610.069312923898</v>
       </c>
       <c r="V46" t="n">
-        <v>1411.755037858958</v>
+        <v>1411.755037858959</v>
       </c>
       <c r="W46" t="n">
-        <v>1178.708080962944</v>
+        <v>1178.708080962946</v>
       </c>
       <c r="X46" t="n">
-        <v>1007.088743205875</v>
+        <v>1007.088743205876</v>
       </c>
       <c r="Y46" t="n">
-        <v>842.666377203292</v>
+        <v>842.6663772032933</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>93.0319868703703</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>245.7340798697784</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>365.0056437604277</v>
       </c>
       <c r="P12" t="n">
-        <v>28.83732068416992</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>14.60311251667375</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>270.6801344612714</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.24888926693794</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>100.5404067478491</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>28.83732068416992</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>14.60311251667375</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>202.6170101886056</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.24888926693794</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>28.83732068416973</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.6243178258436</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.60311251667375</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,16 +9407,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>147.2320256199264</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>159.3986347007748</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.83732068416973</v>
+        <v>46.54287512049049</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>14.60311251667375</v>
@@ -9641,22 +9641,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>229.7661643374861</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6170101886063</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.83732068416973</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>154.9283560245785</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>312.061924311982</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>318.1652264291077</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.9146084200191</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>365.0056437604275</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>37.13688353911499</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>77.24888926693794</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>124.0097987299316</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>69.62184945320206</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>395.796624998303</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>77.24888926693794</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.83732068416973</v>
+        <v>124.0097987299317</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>14.60311251667375</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>246.6480803330084</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.9971212849075073</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.83732068417001</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>365.0056437604277</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>14.60311251667375</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>125.7983062759823</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>288.2815005683682</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.83732068417058</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>100.5404067478495</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>14.60311251667375</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>110.0152086725495</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>3.34382568458944</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>124.0097987299319</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>365.0056437604277</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.60311251667375</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>222.5650806953846</v>
       </c>
       <c r="P44" t="n">
-        <v>256.4291816259849</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>124.0097987299319</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>15.62431782584389</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>137.9559869118996</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>30.27469743548804</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.82407460348989</v>
       </c>
       <c r="H16" t="n">
         <v>146.4910108745831</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2224884875777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.55421060877498</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.070962360484288</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2210634283829</v>
+        <v>129.0534435218384</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.4910108745831</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3832213634118</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.93488719823062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>56.21848419331914</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.3832213634118</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>118.5728551486103</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H25" t="n">
         <v>146.4910108745831</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.1717904191954</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.323970444675467</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>106.7394797481744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.71153510303041</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>235.6675220149303</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>79.95727035754483</v>
+        <v>166.2210634283829</v>
       </c>
       <c r="H31" t="n">
         <v>146.4910108745831</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.2242758664309</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.71153510303041</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2224884875777</v>
+        <v>38.80113476367842</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.0998663845611</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.5147073012516</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.8833592208362</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>120.6889342255551</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.4889496310067</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>121.758897077207</v>
       </c>
       <c r="I34" t="n">
-        <v>7.952277887701944</v>
+        <v>77.49216206905477</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.97942130565418</v>
+        <v>72.97942130565426</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4396766218191</v>
+        <v>82.54676552639357</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.8525395547186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.77635683940025e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.63424829224823e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.520561454526614e-12</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>848821.0562214425</v>
+        <v>848821.0562214424</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>848821.0562214424</v>
+        <v>848821.0562214425</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>848821.0562214425</v>
+        <v>848821.0562214424</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>863326.0373355064</v>
+        <v>863326.0373355065</v>
       </c>
     </row>
     <row r="13">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>572105.0726540395</v>
       </c>
       <c r="F2" t="n">
-        <v>572105.0726540396</v>
+        <v>572105.0726540395</v>
       </c>
       <c r="G2" t="n">
         <v>572105.0726540394</v>
       </c>
       <c r="H2" t="n">
-        <v>572105.0726540396</v>
+        <v>572105.0726540394</v>
       </c>
       <c r="I2" t="n">
-        <v>572105.0726540396</v>
+        <v>572105.0726540392</v>
       </c>
       <c r="J2" t="n">
+        <v>572105.0726540398</v>
+      </c>
+      <c r="K2" t="n">
         <v>572105.0726540399</v>
-      </c>
-      <c r="K2" t="n">
-        <v>572105.0726540401</v>
       </c>
       <c r="L2" t="n">
         <v>582364.6934420355</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516049</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910539</v>
+        <v>63059.94259910629</v>
       </c>
       <c r="K3" t="n">
-        <v>8.192619134206325e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19785.69103790098</v>
+        <v>19785.69103790092</v>
       </c>
       <c r="M3" t="n">
-        <v>210874.6803490296</v>
+        <v>210874.6803490297</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>346065.6887052709</v>
       </c>
       <c r="C4" t="n">
-        <v>346065.6887052709</v>
+        <v>346065.6887052708</v>
       </c>
       <c r="D4" t="n">
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
+        <v>40773.23846873335</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40773.23846873336</v>
+      </c>
+      <c r="G4" t="n">
         <v>40773.23846873334</v>
       </c>
-      <c r="F4" t="n">
-        <v>40773.2384687333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40773.23846873331</v>
-      </c>
       <c r="H4" t="n">
-        <v>40773.23846873334</v>
+        <v>40773.23846873335</v>
       </c>
       <c r="I4" t="n">
         <v>40773.23846873335</v>
       </c>
       <c r="J4" t="n">
-        <v>40773.23846873372</v>
+        <v>40773.23846873335</v>
       </c>
       <c r="K4" t="n">
-        <v>40773.2384687333</v>
+        <v>40773.23846873334</v>
       </c>
       <c r="L4" t="n">
-        <v>48911.3364460018</v>
+        <v>48911.33644600176</v>
       </c>
       <c r="M4" t="n">
-        <v>83469.11200210228</v>
+        <v>83469.11200210224</v>
       </c>
       <c r="N4" t="n">
-        <v>83469.11200210227</v>
+        <v>83469.11200210225</v>
       </c>
       <c r="O4" t="n">
-        <v>83469.11200210224</v>
+        <v>83469.11200210225</v>
       </c>
       <c r="P4" t="n">
-        <v>83469.11200210224</v>
+        <v>83469.11200210222</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>94548.43424048129</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="F5" t="n">
         <v>94548.43424048131</v>
       </c>
       <c r="G5" t="n">
-        <v>94548.43424048131</v>
+        <v>94548.43424048129</v>
       </c>
       <c r="H5" t="n">
         <v>94548.43424048129</v>
@@ -26491,7 +26491,7 @@
         <v>94548.43424048129</v>
       </c>
       <c r="J5" t="n">
-        <v>94548.43424048109</v>
+        <v>94548.43424048131</v>
       </c>
       <c r="K5" t="n">
         <v>94548.43424048129</v>
@@ -26503,13 +26503,13 @@
         <v>86125.32916542374</v>
       </c>
       <c r="N5" t="n">
-        <v>86125.32916542373</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="O5" t="n">
-        <v>86125.32916542373</v>
+        <v>86125.32916542374</v>
       </c>
       <c r="P5" t="n">
-        <v>86125.32916542373</v>
+        <v>86125.32916542374</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120138.8941510249</v>
+        <v>120138.8941510251</v>
       </c>
       <c r="C6" t="n">
-        <v>200908.3256825726</v>
+        <v>200908.3256825727</v>
       </c>
       <c r="D6" t="n">
-        <v>200908.3256825725</v>
+        <v>200908.3256825727</v>
       </c>
       <c r="E6" t="n">
-        <v>-639029.4410329198</v>
+        <v>-639109.2693449807</v>
       </c>
       <c r="F6" t="n">
-        <v>436783.399944825</v>
+        <v>436703.5716327642</v>
       </c>
       <c r="G6" t="n">
-        <v>436783.3999448248</v>
+        <v>436703.5716327641</v>
       </c>
       <c r="H6" t="n">
-        <v>436783.3999448249</v>
+        <v>436703.5716327641</v>
       </c>
       <c r="I6" t="n">
-        <v>436783.3999448249</v>
+        <v>436703.571632764</v>
       </c>
       <c r="J6" t="n">
-        <v>373723.4573457197</v>
+        <v>373643.6290336584</v>
       </c>
       <c r="K6" t="n">
-        <v>436783.3999448247</v>
+        <v>436703.5716327647</v>
       </c>
       <c r="L6" t="n">
-        <v>417040.0276428198</v>
+        <v>416995.5773334765</v>
       </c>
       <c r="M6" t="n">
-        <v>214786.1616350493</v>
+        <v>214786.1616350491</v>
       </c>
       <c r="N6" t="n">
-        <v>425660.841984079</v>
+        <v>425660.8419840789</v>
       </c>
       <c r="O6" t="n">
         <v>425660.8419840792</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="M2" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N2" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O2" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="P2" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
     </row>
     <row r="3">
@@ -26811,7 +26811,7 @@
         <v>1203.153941782003</v>
       </c>
       <c r="J4" t="n">
-        <v>1203.153941782</v>
+        <v>1203.153941782003</v>
       </c>
       <c r="K4" t="n">
         <v>1203.153941782003</v>
@@ -26820,16 +26820,16 @@
         <v>1203.153941782003</v>
       </c>
       <c r="M4" t="n">
-        <v>987.4515955793978</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="N4" t="n">
-        <v>987.4515955793978</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="O4" t="n">
-        <v>987.4515955793978</v>
+        <v>987.4515955793979</v>
       </c>
       <c r="P4" t="n">
-        <v>987.4515955793978</v>
+        <v>987.4515955793979</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="M2" t="n">
-        <v>31.07439721216185</v>
+        <v>31.07439721216187</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776559</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.4373067017387</v>
+        <v>746.4373067017391</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.1396529043441</v>
+        <v>962.1396529043443</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>168.597988489717</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,13 +27394,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27421,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.73299747859798</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>141.8642325229423</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.23705182505932</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27588,13 +27588,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,25 +27619,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>282.2125431961342</v>
+        <v>146.6579999205597</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>40.08552890911983</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>191.9369479400729</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>287.9287071236136</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.5702675696171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>40.33082914602424</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.241409142173083</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.260559656657278e-11</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="C34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="D34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="E34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="F34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="G34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="H34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="I34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="J34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="K34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="L34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="M34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="N34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="O34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="P34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="R34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="S34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="T34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="U34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="V34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="W34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="X34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.73211379737622</v>
+        <v>24.73211379737615</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.80651100953807</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I38" t="n">
-        <v>55.80651100953874</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="C40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="D40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="E40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="F40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="G40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="H40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="I40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="J40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="K40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="L40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="M40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="N40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="O40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="P40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="R40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="S40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="T40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="U40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="V40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="W40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="X40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.80651100953801</v>
+        <v>55.80651100953802</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="C41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="D41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="E41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="F41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="G41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="H41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="I41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953861</v>
       </c>
       <c r="T41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="U41" t="n">
-        <v>55.80651100953884</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="V41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="W41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="X41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="C43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="D43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="E43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="F43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="G43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="H43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="I43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="J43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="K43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="L43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="M43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="N43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="O43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="P43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="R43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="S43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="T43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="U43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="V43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="W43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="X43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="C44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="D44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="E44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="F44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="G44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="H44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="I44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="T44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="U44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="V44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="W44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="X44" t="n">
-        <v>55.80651100953872</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="C46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="D46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="E46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="F46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="G46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="H46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="I46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="J46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="K46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="L46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="M46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="N46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="O46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="P46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="R46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="S46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="T46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="U46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="V46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="W46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="X46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.80651100953799</v>
+        <v>55.80651100953803</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>322.9390992205155</v>
+        <v>246.874470918812</v>
       </c>
       <c r="K11" t="n">
         <v>281.8210325699585</v>
@@ -35425,7 +35425,7 @@
         <v>434.7118856994796</v>
       </c>
       <c r="P11" t="n">
-        <v>581.90112108223</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q11" t="n">
         <v>416.1030985938747</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K12" t="n">
         <v>203.06273621036</v>
@@ -35501,13 +35501,13 @@
         <v>417.7328101286517</v>
       </c>
       <c r="O12" t="n">
-        <v>359.6996729645093</v>
+        <v>724.705316724937</v>
       </c>
       <c r="P12" t="n">
-        <v>297.9996701808399</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q12" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K14" t="n">
-        <v>281.8210325699585</v>
+        <v>552.5011670312299</v>
       </c>
       <c r="L14" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M14" t="n">
-        <v>912.0019017812514</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N14" t="n">
         <v>911.979250519884</v>
@@ -35662,13 +35662,13 @@
         <v>815.5120669622249</v>
       </c>
       <c r="P14" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q14" t="n">
-        <v>281.036997200908</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R14" t="n">
-        <v>97.98646448371528</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>198.7106386939511</v>
+        <v>173.1600101013914</v>
       </c>
       <c r="K15" t="n">
-        <v>203.06273621036</v>
+        <v>467.5279732229386</v>
       </c>
       <c r="L15" t="n">
         <v>319.8333539442075</v>
@@ -35741,10 +35741,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P15" t="n">
-        <v>297.9996701808399</v>
+        <v>269.16234949667</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K17" t="n">
-        <v>281.8210325699585</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L17" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M17" t="n">
-        <v>912.0019017812514</v>
+        <v>665.1053784770245</v>
       </c>
       <c r="N17" t="n">
         <v>911.979250519884</v>
@@ -35902,7 +35902,7 @@
         <v>336.1670412124516</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.036997200908</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R17" t="n">
         <v>97.98646448371528</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K18" t="n">
-        <v>231.9000568945297</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L18" t="n">
-        <v>319.8333539442075</v>
+        <v>335.4576717700511</v>
       </c>
       <c r="M18" t="n">
         <v>392.7828305813691</v>
@@ -35978,13 +35978,13 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P18" t="n">
-        <v>269.16234949667</v>
+        <v>587.6251181366072</v>
       </c>
       <c r="Q18" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30.91855729464707</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>804.559632701063</v>
       </c>
       <c r="M20" t="n">
-        <v>462.4883682884189</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N20" t="n">
-        <v>911.979250519884</v>
+        <v>621.8643517278263</v>
       </c>
       <c r="O20" t="n">
         <v>815.5120669622249</v>
       </c>
       <c r="P20" t="n">
-        <v>495.5656759132264</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q20" t="n">
         <v>416.1030985938747</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K21" t="n">
-        <v>231.9000568945297</v>
+        <v>249.6056113308505</v>
       </c>
       <c r="L21" t="n">
         <v>319.8333539442075</v>
@@ -36215,10 +36215,10 @@
         <v>359.6996729645093</v>
       </c>
       <c r="P21" t="n">
-        <v>269.16234949667</v>
+        <v>587.6251181366072</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>605.9664451411232</v>
       </c>
       <c r="L23" t="n">
-        <v>804.559632701063</v>
+        <v>616.6645824880987</v>
       </c>
       <c r="M23" t="n">
-        <v>462.4883682884189</v>
+        <v>912.0019017812514</v>
       </c>
       <c r="N23" t="n">
         <v>911.979250519884</v>
       </c>
       <c r="O23" t="n">
-        <v>815.5120669622249</v>
+        <v>434.7118856994796</v>
       </c>
       <c r="P23" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q23" t="n">
-        <v>406.4051181225764</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R23" t="n">
         <v>97.98646448371528</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K24" t="n">
-        <v>231.9000568945297</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L24" t="n">
         <v>319.8333539442075</v>
@@ -36446,7 +36446,7 @@
         <v>392.7828305813691</v>
       </c>
       <c r="N24" t="n">
-        <v>417.7328101286517</v>
+        <v>572.6611661532303</v>
       </c>
       <c r="O24" t="n">
         <v>359.6996729645093</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>153.8424840484417</v>
+        <v>322.9390992205155</v>
       </c>
       <c r="K26" t="n">
-        <v>593.8829568819405</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L26" t="n">
         <v>804.559632701063</v>
       </c>
       <c r="M26" t="n">
-        <v>912.0019017812514</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N26" t="n">
-        <v>911.979250519884</v>
+        <v>792.7975525370075</v>
       </c>
       <c r="O26" t="n">
         <v>815.5120669622249</v>
       </c>
       <c r="P26" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q26" t="n">
         <v>203.7881079339701</v>
       </c>
       <c r="R26" t="n">
-        <v>32.27004461073284</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K27" t="n">
-        <v>441.9773446303792</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L27" t="n">
         <v>319.8333539442075</v>
@@ -36683,7 +36683,7 @@
         <v>392.7828305813691</v>
       </c>
       <c r="N27" t="n">
-        <v>417.7328101286517</v>
+        <v>782.7384538890792</v>
       </c>
       <c r="O27" t="n">
         <v>359.6996729645093</v>
@@ -36832,7 +36832,7 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K29" t="n">
-        <v>281.8210325699585</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L29" t="n">
         <v>804.559632701063</v>
@@ -36841,16 +36841,16 @@
         <v>912.0019017812514</v>
       </c>
       <c r="N29" t="n">
-        <v>911.979250519884</v>
+        <v>474.6323261078998</v>
       </c>
       <c r="O29" t="n">
-        <v>815.5120669622249</v>
+        <v>471.8487692385946</v>
       </c>
       <c r="P29" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q29" t="n">
-        <v>281.036997200908</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R29" t="n">
         <v>97.98646448371528</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>196.6294020834738</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K30" t="n">
-        <v>203.06273621036</v>
+        <v>467.5279732229386</v>
       </c>
       <c r="L30" t="n">
         <v>319.8333539442075</v>
       </c>
       <c r="M30" t="n">
-        <v>392.7828305813691</v>
+        <v>462.4046800345711</v>
       </c>
       <c r="N30" t="n">
         <v>417.7328101286517</v>
@@ -36929,7 +36929,7 @@
         <v>269.16234949667</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R30" t="n">
         <v>30.91855729464707</v>
@@ -37069,16 +37069,16 @@
         <v>322.9390992205155</v>
       </c>
       <c r="K32" t="n">
-        <v>281.8210325699585</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L32" t="n">
-        <v>804.559632701063</v>
+        <v>386.8984181506126</v>
       </c>
       <c r="M32" t="n">
         <v>912.0019017812514</v>
       </c>
       <c r="N32" t="n">
-        <v>911.979250519884</v>
+        <v>870.4289511062028</v>
       </c>
       <c r="O32" t="n">
         <v>815.5120669622249</v>
@@ -37087,7 +37087,7 @@
         <v>336.1670412124516</v>
       </c>
       <c r="Q32" t="n">
-        <v>281.036997200908</v>
+        <v>416.1030985938747</v>
       </c>
       <c r="R32" t="n">
         <v>97.98646448371528</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K33" t="n">
-        <v>231.9000568945297</v>
+        <v>327.0725349402917</v>
       </c>
       <c r="L33" t="n">
         <v>319.8333539442075</v>
@@ -37169,7 +37169,7 @@
         <v>339.5817595301563</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>30.91855729464707</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.50598993706812</v>
+        <v>56.50598993706805</v>
       </c>
       <c r="K34" t="n">
-        <v>208.0946727566728</v>
+        <v>208.0946727566727</v>
       </c>
       <c r="L34" t="n">
-        <v>315.4603674255191</v>
+        <v>315.460367425519</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7583578710203</v>
+        <v>341.7583578710202</v>
       </c>
       <c r="N34" t="n">
-        <v>339.7096939126712</v>
+        <v>339.7096939126711</v>
       </c>
       <c r="O34" t="n">
-        <v>299.4868133552321</v>
+        <v>299.486813355232</v>
       </c>
       <c r="P34" t="n">
-        <v>236.0739597325378</v>
+        <v>236.0739597325377</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.77639447230843</v>
+        <v>86.77639447230837</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K35" t="n">
-        <v>281.8210325699585</v>
+        <v>605.9664451411232</v>
       </c>
       <c r="L35" t="n">
         <v>386.8984181506126</v>
       </c>
       <c r="M35" t="n">
-        <v>912.0019017812514</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N35" t="n">
-        <v>474.6323261078998</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O35" t="n">
-        <v>681.3599660324879</v>
+        <v>815.5120669622249</v>
       </c>
       <c r="P35" t="n">
-        <v>336.1670412124516</v>
+        <v>337.1641624973591</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.1030985938747</v>
+        <v>203.7881079339701</v>
       </c>
       <c r="R35" t="n">
-        <v>97.98646448371528</v>
+        <v>32.27004461073284</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K36" t="n">
-        <v>231.90005689453</v>
+        <v>203.06273621036</v>
       </c>
       <c r="L36" t="n">
         <v>319.8333539442075</v>
@@ -37397,13 +37397,13 @@
         <v>417.7328101286517</v>
       </c>
       <c r="O36" t="n">
-        <v>359.6996729645093</v>
+        <v>724.705316724937</v>
       </c>
       <c r="P36" t="n">
         <v>269.16234949667</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.58038714922996</v>
+        <v>87.58038714922992</v>
       </c>
       <c r="K37" t="n">
-        <v>239.1690699688346</v>
+        <v>239.1690699688345</v>
       </c>
       <c r="L37" t="n">
-        <v>346.534764637681</v>
+        <v>346.5347646376808</v>
       </c>
       <c r="M37" t="n">
-        <v>372.8327550831822</v>
+        <v>372.8327550831821</v>
       </c>
       <c r="N37" t="n">
         <v>370.784091124833</v>
@@ -37479,10 +37479,10 @@
         <v>330.5612105673939</v>
       </c>
       <c r="P37" t="n">
-        <v>267.1483569446997</v>
+        <v>267.1483569446996</v>
       </c>
       <c r="Q37" t="n">
-        <v>117.8507916844703</v>
+        <v>117.8507916844702</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>279.640790324424</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K38" t="n">
         <v>281.8210325699584</v>
@@ -37552,19 +37552,19 @@
         <v>462.4883682884189</v>
       </c>
       <c r="N38" t="n">
-        <v>474.6323261078997</v>
+        <v>911.9792505198839</v>
       </c>
       <c r="O38" t="n">
-        <v>434.7118856994795</v>
+        <v>722.9933862678477</v>
       </c>
       <c r="P38" t="n">
-        <v>657.9657493839341</v>
+        <v>336.1670412124515</v>
       </c>
       <c r="Q38" t="n">
-        <v>416.1030985938747</v>
+        <v>203.78810793397</v>
       </c>
       <c r="R38" t="n">
-        <v>97.98646448371525</v>
+        <v>32.27004461073281</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>198.7106386939511</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K39" t="n">
-        <v>231.9000568945305</v>
+        <v>467.5279732229386</v>
       </c>
       <c r="L39" t="n">
-        <v>319.8333539442074</v>
+        <v>420.3737606920569</v>
       </c>
       <c r="M39" t="n">
         <v>392.782830581369</v>
@@ -37640,7 +37640,7 @@
         <v>269.1623494966699</v>
       </c>
       <c r="Q39" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>322.9390992205155</v>
+        <v>153.8424840484417</v>
       </c>
       <c r="K41" t="n">
         <v>281.8210325699585</v>
       </c>
       <c r="L41" t="n">
-        <v>804.559632701063</v>
+        <v>386.8984181506126</v>
       </c>
       <c r="M41" t="n">
-        <v>572.5035769609684</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N41" t="n">
-        <v>474.6323261078998</v>
+        <v>911.979250519884</v>
       </c>
       <c r="O41" t="n">
         <v>815.5120669622249</v>
       </c>
       <c r="P41" t="n">
-        <v>336.1670412124516</v>
+        <v>657.9657493839343</v>
       </c>
       <c r="Q41" t="n">
         <v>203.7881079339701</v>
       </c>
       <c r="R41" t="n">
-        <v>97.98646448371528</v>
+        <v>35.61387029532228</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>196.6294020834741</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K42" t="n">
         <v>203.06273621036</v>
@@ -37865,7 +37865,7 @@
         <v>319.8333539442075</v>
       </c>
       <c r="M42" t="n">
-        <v>392.7828305813691</v>
+        <v>757.7884743417968</v>
       </c>
       <c r="N42" t="n">
         <v>417.7328101286517</v>
@@ -37877,10 +37877,10 @@
         <v>269.16234949667</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R42" t="n">
-        <v>30.91855729464707</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.58038714922988</v>
+        <v>87.58038714922992</v>
       </c>
       <c r="K43" t="n">
-        <v>239.1690699688345</v>
+        <v>239.1690699688346</v>
       </c>
       <c r="L43" t="n">
         <v>346.5347646376808</v>
@@ -37947,7 +37947,7 @@
         <v>372.8327550831821</v>
       </c>
       <c r="N43" t="n">
-        <v>370.7840911248329</v>
+        <v>370.784091124833</v>
       </c>
       <c r="O43" t="n">
         <v>330.5612105673939</v>
@@ -38020,25 +38020,25 @@
         <v>281.8210325699585</v>
       </c>
       <c r="L44" t="n">
-        <v>386.8984181506126</v>
+        <v>804.559632701063</v>
       </c>
       <c r="M44" t="n">
-        <v>912.0019017812514</v>
+        <v>462.4883682884189</v>
       </c>
       <c r="N44" t="n">
         <v>911.979250519884</v>
       </c>
       <c r="O44" t="n">
-        <v>434.7118856994796</v>
+        <v>657.2769663948642</v>
       </c>
       <c r="P44" t="n">
-        <v>592.5962228384365</v>
+        <v>336.1670412124516</v>
       </c>
       <c r="Q44" t="n">
         <v>203.7881079339701</v>
       </c>
       <c r="R44" t="n">
-        <v>32.27004461073284</v>
+        <v>97.98646448371528</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>196.6294020834741</v>
+        <v>72.61960335354223</v>
       </c>
       <c r="K45" t="n">
         <v>203.06273621036</v>
@@ -38108,13 +38108,13 @@
         <v>417.7328101286517</v>
       </c>
       <c r="O45" t="n">
-        <v>359.6996729645093</v>
+        <v>375.3239907903532</v>
       </c>
       <c r="P45" t="n">
-        <v>269.16234949667</v>
+        <v>587.6251181366072</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.5817595301563</v>
+        <v>129.5044717943072</v>
       </c>
       <c r="R45" t="n">
         <v>30.91855729464707</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.58038714922988</v>
+        <v>87.58038714922992</v>
       </c>
       <c r="K46" t="n">
-        <v>239.1690699688345</v>
+        <v>239.1690699688346</v>
       </c>
       <c r="L46" t="n">
         <v>346.5347646376808</v>
@@ -38184,7 +38184,7 @@
         <v>372.8327550831821</v>
       </c>
       <c r="N46" t="n">
-        <v>370.7840911248329</v>
+        <v>370.784091124833</v>
       </c>
       <c r="O46" t="n">
         <v>330.5612105673939</v>
